--- a/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3510</v>
+        <v>2697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14210</v>
+        <v>13580</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01967772130026752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009404169684708662</v>
+        <v>0.007225812771646704</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0380784347554845</v>
+        <v>0.03638894675267508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>29199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20119</v>
+        <v>19425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41615</v>
+        <v>40593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04967852392916262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03423105363343646</v>
+        <v>0.03304965687817298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07080429677623341</v>
+        <v>0.06906524326092225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>36542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26403</v>
+        <v>26155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50380</v>
+        <v>50213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03802744568675565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02747610605487779</v>
+        <v>0.02721805147966381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05242758505963899</v>
+        <v>0.05225420005001989</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>26667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18012</v>
+        <v>18325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38123</v>
+        <v>36913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07145708166551856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04826607969433135</v>
+        <v>0.04910314466672056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1021558917331733</v>
+        <v>0.09891330329906095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -836,19 +836,19 @@
         <v>49835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38182</v>
+        <v>37442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64737</v>
+        <v>64710</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08479043420005403</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06496381993584051</v>
+        <v>0.06370418580728063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1101437985216259</v>
+        <v>0.1100978420245769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -857,19 +857,19 @@
         <v>76502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61025</v>
+        <v>61856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93609</v>
+        <v>95540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07961230828338788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06350557273152377</v>
+        <v>0.0643702550083326</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09741436132581921</v>
+        <v>0.09942328249877849</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>339178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>327321</v>
+        <v>326396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>348516</v>
+        <v>348235</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9088651970342139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8770915579750155</v>
+        <v>0.8746131861651533</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.933886116656141</v>
+        <v>0.9331324114301912</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>500</v>
@@ -907,19 +907,19 @@
         <v>508715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>492323</v>
+        <v>490676</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>524824</v>
+        <v>524760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8655310418707833</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.837641355193583</v>
+        <v>0.8348387808400538</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.892939431150504</v>
+        <v>0.8928300404270736</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>862</v>
@@ -928,19 +928,19 @@
         <v>847893</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>825183</v>
+        <v>826704</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>866275</v>
+        <v>866681</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8823602460298565</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8587263781521153</v>
+        <v>0.8603098414767448</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9014887845051257</v>
+        <v>0.9019114231562048</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7308</v>
+        <v>6953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03303041069079647</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1174710433412393</v>
+        <v>0.1117558247251024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6687</v>
+        <v>7803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01367235782818547</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04449469418546937</v>
+        <v>0.05191530161332276</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>3636</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8092</v>
+        <v>8576</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04127881094113263</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01078133641341258</v>
+        <v>0.01085691468540405</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09186673822717191</v>
+        <v>0.09736192614560472</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1116,19 +1116,19 @@
         <v>3464</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9714</v>
+        <v>8335</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05567830405391756</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01799665228942628</v>
+        <v>0.01762000610211359</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.156139525596144</v>
+        <v>0.1339715571657185</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1137,19 +1137,19 @@
         <v>7100</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2911</v>
+        <v>2992</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13222</v>
+        <v>14106</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04723922797092586</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0193703736956424</v>
+        <v>0.01990436295556929</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08797533067185356</v>
+        <v>0.0938586445731166</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>84447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79991</v>
+        <v>79507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87133</v>
+        <v>87127</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9587211890588674</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9081332617728278</v>
+        <v>0.9026380738543952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9892186635865874</v>
+        <v>0.9891430853145959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1187,19 +1187,19 @@
         <v>56693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50276</v>
+        <v>50730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60071</v>
+        <v>60168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.911291285255286</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8081438252319323</v>
+        <v>0.8154406929281629</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.96559101030169</v>
+        <v>0.9671482001353439</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1208,19 +1208,19 @@
         <v>141140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134131</v>
+        <v>133541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145850</v>
+        <v>145995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9390884142008886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8924486168891133</v>
+        <v>0.8885249182869743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9704269223409221</v>
+        <v>0.971390889782809</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4750</v>
+        <v>4397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03444385310891124</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1766961690671462</v>
+        <v>0.1635792343522097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5167</v>
+        <v>4651</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01360083060350504</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07590064628463077</v>
+        <v>0.06832845670700588</v>
       </c>
     </row>
     <row r="14">
@@ -1435,7 +1435,7 @@
         <v>25955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22131</v>
+        <v>22484</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>26881</v>
@@ -1444,7 +1444,7 @@
         <v>0.9655561468910887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.823303830932854</v>
+        <v>0.836420765647784</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>67149</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62908</v>
+        <v>63424</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>68075</v>
@@ -1465,7 +1465,7 @@
         <v>0.986399169396495</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9240993537153681</v>
+        <v>0.9316715432929941</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1560,19 +1560,19 @@
         <v>7344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2856</v>
+        <v>3512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14771</v>
+        <v>13499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01461493619098414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005683176629207141</v>
+        <v>0.006990232245534049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02939722743494017</v>
+        <v>0.02686600697305869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1581,19 +1581,19 @@
         <v>31253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20943</v>
+        <v>20993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44553</v>
+        <v>43463</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04617533731179114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03094195604695566</v>
+        <v>0.03101566690937876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06582499424585062</v>
+        <v>0.06421435391764306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1602,19 +1602,19 @@
         <v>38597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27882</v>
+        <v>27584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53861</v>
+        <v>52078</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0327284441877316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02364271731298364</v>
+        <v>0.02338981284633043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04567174519857223</v>
+        <v>0.04415980659733689</v>
       </c>
     </row>
     <row r="17">
@@ -1631,19 +1631,19 @@
         <v>30303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21130</v>
+        <v>22376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40417</v>
+        <v>42056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06030845733671672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04205260445069006</v>
+        <v>0.04453212912544078</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0804378692588739</v>
+        <v>0.08369858104298319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1652,19 +1652,19 @@
         <v>54225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41400</v>
+        <v>41935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69148</v>
+        <v>71939</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08011508738320543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06116622583955018</v>
+        <v>0.06195647416248223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1021634206189723</v>
+        <v>0.1062863539250895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1673,19 +1673,19 @@
         <v>84528</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68025</v>
+        <v>67625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103462</v>
+        <v>102420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07167610600386769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05768212417657359</v>
+        <v>0.05734327737280949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08773091993365999</v>
+        <v>0.08684753945659623</v>
       </c>
     </row>
     <row r="18">
@@ -1702,19 +1702,19 @@
         <v>464820</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>453051</v>
+        <v>451397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>474824</v>
+        <v>473541</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9250766064722992</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9016555767652056</v>
+        <v>0.8983638754223793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9449868527832386</v>
+        <v>0.9424334988480441</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>581</v>
@@ -1723,19 +1723,19 @@
         <v>591363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>572520</v>
+        <v>571277</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>608416</v>
+        <v>606747</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8737095753050035</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8458693810000837</v>
+        <v>0.8440332120485716</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8989041520112391</v>
+        <v>0.8964377561869297</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1063</v>
@@ -1744,19 +1744,19 @@
         <v>1056183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1032622</v>
+        <v>1033966</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1075552</v>
+        <v>1076477</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8955954498084007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8756170014015632</v>
+        <v>0.8767565436789442</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9120192589813941</v>
+        <v>0.9128040430903819</v>
       </c>
     </row>
     <row r="19">
@@ -2087,19 +2087,19 @@
         <v>21191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13479</v>
+        <v>13177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33237</v>
+        <v>34230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05113765485119093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03252552609107254</v>
+        <v>0.03179724683742153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08020522562394485</v>
+        <v>0.0826027767253847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -2108,19 +2108,19 @@
         <v>64065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49490</v>
+        <v>48987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80719</v>
+        <v>81810</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1009626637220936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07799254814173794</v>
+        <v>0.07720017641395922</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1272072664649296</v>
+        <v>0.128926640119061</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -2129,19 +2129,19 @@
         <v>85257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66887</v>
+        <v>68861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104930</v>
+        <v>107128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08127867332372729</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06376652144983011</v>
+        <v>0.06564772545956996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1000339215604167</v>
+        <v>0.1021294021367025</v>
       </c>
     </row>
     <row r="5">
@@ -2158,19 +2158,19 @@
         <v>27644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18037</v>
+        <v>17955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39473</v>
+        <v>38887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06670992398035169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04352532637237561</v>
+        <v>0.04332789410145833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09525403977044501</v>
+        <v>0.09383979778911092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -2179,19 +2179,19 @@
         <v>65371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50529</v>
+        <v>50545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82367</v>
+        <v>81863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1030205506150525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07963055809284868</v>
+        <v>0.07965614773040204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1298047226341278</v>
+        <v>0.1290106802156618</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -2200,19 +2200,19 @@
         <v>93016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73373</v>
+        <v>73633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113569</v>
+        <v>113377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08867558526064559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06994947452731225</v>
+        <v>0.07019725095721886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1082700990244946</v>
+        <v>0.1080874633387194</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>365562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>350715</v>
+        <v>350983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>378038</v>
+        <v>377752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8821524211684574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8463249705721886</v>
+        <v>0.8469702301487915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9122573078258822</v>
+        <v>0.9115689751635286</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>478</v>
@@ -2250,19 +2250,19 @@
         <v>505108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>484675</v>
+        <v>484193</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>527019</v>
+        <v>525449</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7960167856628539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7638155867638923</v>
+        <v>0.7630552432327204</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8305458306869073</v>
+        <v>0.8280728080649986</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>814</v>
@@ -2271,19 +2271,19 @@
         <v>870670</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>844136</v>
+        <v>843688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>896882</v>
+        <v>897449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8300457414156271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8047499304518515</v>
+        <v>0.8043226083856325</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8550352471849112</v>
+        <v>0.8555753979072195</v>
       </c>
     </row>
     <row r="7">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2417,19 +2417,19 @@
         <v>3416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9159</v>
+        <v>9513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0169333130785138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0049077224768388</v>
+        <v>0.004950610507990549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04540108701278062</v>
+        <v>0.04715537706230918</v>
       </c>
     </row>
     <row r="9">
@@ -2446,19 +2446,19 @@
         <v>7111</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3063</v>
+        <v>3093</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14170</v>
+        <v>14185</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05992381319910688</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02580856879823282</v>
+        <v>0.02606127227607136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1194078831356478</v>
+        <v>0.1195396299648216</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -2467,19 +2467,19 @@
         <v>4252</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9944</v>
+        <v>10178</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05118078052973329</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0129064155788622</v>
+        <v>0.01276994208203716</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1197000613706979</v>
+        <v>0.1225187588620191</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -2488,19 +2488,19 @@
         <v>11363</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5946</v>
+        <v>6060</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19126</v>
+        <v>20183</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05632350901138131</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02947332072368497</v>
+        <v>0.03004056894900426</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09480560480293304</v>
+        <v>0.1000429068006424</v>
       </c>
     </row>
     <row r="10">
@@ -2517,19 +2517,19 @@
         <v>110562</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102591</v>
+        <v>103510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114645</v>
+        <v>114716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9317155214010043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8645454120695593</v>
+        <v>0.8722874027780382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9661248622611902</v>
+        <v>0.9667178998271593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -2538,19 +2538,19 @@
         <v>76398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69091</v>
+        <v>69425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80752</v>
+        <v>80888</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9196406079166122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8316840409277969</v>
+        <v>0.8357057579959895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9720474010073973</v>
+        <v>0.9736852914429084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -2559,19 +2559,19 @@
         <v>186960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>178727</v>
+        <v>177715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>193709</v>
+        <v>193480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9267431779101049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8859320323840979</v>
+        <v>0.8809143290542865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9601941995830697</v>
+        <v>0.9590605596802766</v>
       </c>
     </row>
     <row r="11">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="13">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6663</v>
+        <v>6768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09956782601672624</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2995068698213548</v>
+        <v>0.3042338294797753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -2776,19 +2776,19 @@
         <v>3258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9007</v>
+        <v>8978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06672598335482166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02037594726091214</v>
+        <v>0.02061490384520999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1844997265783276</v>
+        <v>0.1838885418492283</v>
       </c>
     </row>
     <row r="14">
@@ -2805,7 +2805,7 @@
         <v>24547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2814,7 +2814,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2826,19 +2826,19 @@
         <v>18931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -2847,19 +2847,19 @@
         <v>43478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37276</v>
+        <v>37454</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46805</v>
+        <v>46828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8905634957854972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7635251311718171</v>
+        <v>0.7671753033115445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9587129865921835</v>
+        <v>0.9591848280688907</v>
       </c>
     </row>
     <row r="15">
@@ -2951,19 +2951,19 @@
         <v>23169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14748</v>
+        <v>14497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34654</v>
+        <v>36374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04140009959390366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02635255645682084</v>
+        <v>0.02590358745420508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0619224768128545</v>
+        <v>0.06499493329545651</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -2972,19 +2972,19 @@
         <v>67589</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52956</v>
+        <v>52624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84870</v>
+        <v>84459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09135298602213766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07157556194409273</v>
+        <v>0.07112587757678759</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1147100522333047</v>
+        <v>0.1141541405084813</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -2993,19 +2993,19 @@
         <v>90758</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73063</v>
+        <v>74037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112076</v>
+        <v>111612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06984052539340924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05622384898136405</v>
+        <v>0.05697321497254644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08624520553074401</v>
+        <v>0.08588802469085002</v>
       </c>
     </row>
     <row r="17">
@@ -3022,19 +3022,19 @@
         <v>35798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24755</v>
+        <v>24491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50382</v>
+        <v>49110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06396628166165427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04423338333675834</v>
+        <v>0.04376155583048146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09002643765581538</v>
+        <v>0.08775258083303672</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -3043,19 +3043,19 @@
         <v>71838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56410</v>
+        <v>55093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90294</v>
+        <v>87566</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09709600007014979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07624331134284482</v>
+        <v>0.07446408889779702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1220407940270629</v>
+        <v>0.1183544775430506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -3064,19 +3064,19 @@
         <v>107636</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>88786</v>
+        <v>87695</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>130029</v>
+        <v>129078</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08282852097407115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0683228369210909</v>
+        <v>0.06748350823046637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1000609512960644</v>
+        <v>0.09932900374347813</v>
       </c>
     </row>
     <row r="18">
@@ -3093,19 +3093,19 @@
         <v>500670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>483917</v>
+        <v>483579</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>514630</v>
+        <v>514774</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.894633618744442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8646977517011744</v>
+        <v>0.86409459394592</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9195783225516366</v>
+        <v>0.919835544114423</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>564</v>
@@ -3114,19 +3114,19 @@
         <v>600438</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>577759</v>
+        <v>577932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>622877</v>
+        <v>621738</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8115510139077126</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7808981859879845</v>
+        <v>0.7811320053578044</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8418796187046081</v>
+        <v>0.8403400351744931</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1016</v>
@@ -3135,19 +3135,19 @@
         <v>1101108</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1073679</v>
+        <v>1071278</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1128735</v>
+        <v>1126825</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8473309536325196</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8262232709022864</v>
+        <v>0.8243754695579049</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.868590334637257</v>
+        <v>0.8671206720721567</v>
       </c>
     </row>
     <row r="19">
@@ -3478,19 +3478,19 @@
         <v>13526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7992</v>
+        <v>7549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22626</v>
+        <v>21841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0382196380154648</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02258150797260965</v>
+        <v>0.02133088992048958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06393311371800034</v>
+        <v>0.06171579795390658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3499,19 +3499,19 @@
         <v>33432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22588</v>
+        <v>23034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48929</v>
+        <v>47696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06026381747791457</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0407162708784808</v>
+        <v>0.04152137779640715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0881993302215716</v>
+        <v>0.08597575580909381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -3520,19 +3520,19 @@
         <v>46958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34358</v>
+        <v>33787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63077</v>
+        <v>64146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0516781176347275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03781176581904124</v>
+        <v>0.03718303290954249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06941830026417037</v>
+        <v>0.07059368055785255</v>
       </c>
     </row>
     <row r="5">
@@ -3549,19 +3549,19 @@
         <v>24960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16735</v>
+        <v>16510</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34230</v>
+        <v>35484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07052865058847183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04728736832040474</v>
+        <v>0.04665281534145922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09672142310892999</v>
+        <v>0.1002641080881012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -3570,19 +3570,19 @@
         <v>74505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58519</v>
+        <v>58578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93720</v>
+        <v>93704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1343013902060292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1054852395474467</v>
+        <v>0.1055914609328328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1689393497490152</v>
+        <v>0.1689100120620035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -3591,19 +3591,19 @@
         <v>99465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80014</v>
+        <v>80145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120044</v>
+        <v>119883</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1094633779104595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08805687604411273</v>
+        <v>0.08820139616039996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1321117382348254</v>
+        <v>0.1319342821243326</v>
       </c>
     </row>
     <row r="6">
@@ -3620,19 +3620,19 @@
         <v>315415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>303472</v>
+        <v>303346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>325960</v>
+        <v>325982</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8912517113960634</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8575051904152416</v>
+        <v>0.8571482775153206</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9210495307120167</v>
+        <v>0.9211119057519114</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>385</v>
@@ -3641,19 +3641,19 @@
         <v>446821</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>425804</v>
+        <v>422962</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>465576</v>
+        <v>465759</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8054347923160562</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7675496821722476</v>
+        <v>0.7624275527016854</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.83924308414485</v>
+        <v>0.8395731198723893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>728</v>
@@ -3662,19 +3662,19 @@
         <v>762235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>738606</v>
+        <v>737945</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>784820</v>
+        <v>785416</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8388585044548129</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8128535666279472</v>
+        <v>0.8121257534714855</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8637131940574363</v>
+        <v>0.8643688865297084</v>
       </c>
     </row>
     <row r="7">
@@ -3766,19 +3766,19 @@
         <v>3657</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8327</v>
+        <v>8780</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01899346462691381</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004736532290630793</v>
+        <v>0.004954203368564256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.043249018515832</v>
+        <v>0.04560198770537598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3787,19 +3787,19 @@
         <v>5489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2069</v>
+        <v>2035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14472</v>
+        <v>14496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02918338665567003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01100321477777284</v>
+        <v>0.01081878747360887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07694611425578883</v>
+        <v>0.07707767261968998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -3808,19 +3808,19 @@
         <v>9145</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3749</v>
+        <v>4003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17616</v>
+        <v>18336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02402874897056916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009849217225475985</v>
+        <v>0.01051721266419024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0462828877628194</v>
+        <v>0.04817466797787989</v>
       </c>
     </row>
     <row r="9">
@@ -3837,19 +3837,19 @@
         <v>2561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7184</v>
+        <v>7178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01330272477715183</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003813630768953929</v>
+        <v>0.003821469686124643</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03731273294494875</v>
+        <v>0.03728168349050998</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3858,19 +3858,19 @@
         <v>12065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5860</v>
+        <v>6113</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20951</v>
+        <v>21209</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06414920067195826</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03115634583668231</v>
+        <v>0.03250580570604578</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1113989889023271</v>
+        <v>0.1127687204484114</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -3879,19 +3879,19 @@
         <v>14626</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7886</v>
+        <v>8468</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24648</v>
+        <v>25019</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03842818337052031</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02071959352007486</v>
+        <v>0.02224818227125724</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06476091255628909</v>
+        <v>0.06573369489429658</v>
       </c>
     </row>
     <row r="10">
@@ -3908,19 +3908,19 @@
         <v>186314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180395</v>
+        <v>180202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189794</v>
+        <v>189803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9677038105959344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.936960136717175</v>
+        <v>0.9359599447121719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9857781846854619</v>
+        <v>0.9858276162257901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -3929,19 +3929,19 @@
         <v>170521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160010</v>
+        <v>160947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178706</v>
+        <v>178206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9066674126723717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8507807308836014</v>
+        <v>0.8557617906501231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9501873092293723</v>
+        <v>0.947531289504797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -3950,19 +3950,19 @@
         <v>356835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343895</v>
+        <v>345262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>365669</v>
+        <v>365054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9375430676589105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9035465583793155</v>
+        <v>0.9071384885468419</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9607535259039546</v>
+        <v>0.9591395561390972</v>
       </c>
     </row>
     <row r="11">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6553</v>
+        <v>7463</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03740797777715391</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1559090507414063</v>
+        <v>0.1775644624743901</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11116</v>
+        <v>9859</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03894166112874054</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1468315714054358</v>
+        <v>0.1302288062459633</v>
       </c>
     </row>
     <row r="13">
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4213</v>
+        <v>4687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02120642298024414</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1002377541150225</v>
+        <v>0.111509996006913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7581</v>
+        <v>7823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07349078440997324</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2251316319106215</v>
+        <v>0.2323020297325408</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -4167,19 +4167,19 @@
         <v>3366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8963</v>
+        <v>9334</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04446337102611441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01180580531873076</v>
+        <v>0.01151872193068567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1183974324001626</v>
+        <v>0.1232941729192101</v>
       </c>
     </row>
     <row r="14">
@@ -4196,7 +4196,7 @@
         <v>39565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34818</v>
+        <v>34101</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>42029</v>
@@ -4205,7 +4205,7 @@
         <v>0.9413855992426019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8284301843877775</v>
+        <v>0.8113710471707503</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4217,19 +4217,19 @@
         <v>29823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23788</v>
+        <v>23709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32527</v>
+        <v>32480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8856533368021745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7064191871821865</v>
+        <v>0.7040862539718113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9659442065690534</v>
+        <v>0.9645482784638528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -4238,19 +4238,19 @@
         <v>69389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62168</v>
+        <v>61593</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73476</v>
+        <v>73401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.916594967845145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8212039870715359</v>
+        <v>0.8136080070718347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9705776825729817</v>
+        <v>0.9695884609867829</v>
       </c>
     </row>
     <row r="15">
@@ -4342,19 +4342,19 @@
         <v>18755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11301</v>
+        <v>12265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28488</v>
+        <v>27585</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0318712853020618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01920458653064166</v>
+        <v>0.02084218973982982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04841011526788001</v>
+        <v>0.04687575305635609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -4363,19 +4363,19 @@
         <v>40296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27630</v>
+        <v>29021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56905</v>
+        <v>56768</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05189430513188721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0355828634347719</v>
+        <v>0.03737418602655561</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07328384776789774</v>
+        <v>0.07310765491433992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -4384,19 +4384,19 @@
         <v>59051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44442</v>
+        <v>42658</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76405</v>
+        <v>76540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04326201226945739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03255889701742531</v>
+        <v>0.0312520363379005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0559753075663657</v>
+        <v>0.05607478967669945</v>
       </c>
     </row>
     <row r="17">
@@ -4413,19 +4413,19 @@
         <v>28413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19702</v>
+        <v>19921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38671</v>
+        <v>39386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04828289166027546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03348075063387779</v>
+        <v>0.03385177710828157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06571482812417603</v>
+        <v>0.06693038666225876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -4434,19 +4434,19 @@
         <v>89044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70200</v>
+        <v>70666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110629</v>
+        <v>107793</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1146729916344957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09040495968321657</v>
+        <v>0.09100502020283444</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1424699282655643</v>
+        <v>0.1388184689405012</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -4455,19 +4455,19 @@
         <v>117457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96391</v>
+        <v>96501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139107</v>
+        <v>139115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08605099600076015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07061759137519401</v>
+        <v>0.0706982584359908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1019120370936852</v>
+        <v>0.1019181873935145</v>
       </c>
     </row>
     <row r="18">
@@ -4484,19 +4484,19 @@
         <v>541295</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>526468</v>
+        <v>527723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>552253</v>
+        <v>551754</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9198458230376627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8946500457494008</v>
+        <v>0.896781174165679</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9384673165323716</v>
+        <v>0.9376190096845993</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>551</v>
@@ -4505,19 +4505,19 @@
         <v>647165</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>621226</v>
+        <v>623877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>667915</v>
+        <v>668702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8334327032336171</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8000279398098895</v>
+        <v>0.8034425213310656</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8601551057450767</v>
+        <v>0.8611688979362997</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1123</v>
@@ -4526,19 +4526,19 @@
         <v>1188460</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1164098</v>
+        <v>1161794</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1215959</v>
+        <v>1214350</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8706869917297825</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8528390924200704</v>
+        <v>0.8511513859247886</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8908334348619054</v>
+        <v>0.8896543134259922</v>
       </c>
     </row>
     <row r="19">
@@ -4869,19 +4869,19 @@
         <v>15601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10496</v>
+        <v>9930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23021</v>
+        <v>23206</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0537791542019781</v>
+        <v>0.05377915420197813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03617983125794541</v>
+        <v>0.03422883214592218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07935642665288516</v>
+        <v>0.07999464363812188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -4890,19 +4890,19 @@
         <v>68089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57257</v>
+        <v>56673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82129</v>
+        <v>81037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1265155549124607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1063897973772812</v>
+        <v>0.1053035192152362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1526045158221871</v>
+        <v>0.1505743124397529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -4911,19 +4911,19 @@
         <v>83690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72493</v>
+        <v>70949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99166</v>
+        <v>98298</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1010405010941953</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08752272399510835</v>
+        <v>0.08565863732844299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1197252782157296</v>
+        <v>0.1186773904362854</v>
       </c>
     </row>
     <row r="5">
@@ -4940,19 +4940,19 @@
         <v>30684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22684</v>
+        <v>23361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39581</v>
+        <v>39432</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1057725972412928</v>
+        <v>0.1057725972412929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07819665976361567</v>
+        <v>0.08052779609965593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1364426822160264</v>
+        <v>0.135928483450598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -4961,19 +4961,19 @@
         <v>101663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88151</v>
+        <v>89465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114692</v>
+        <v>116354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.188899173837813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.163793260160805</v>
+        <v>0.166234663884305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2131091112400344</v>
+        <v>0.2161962560952239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -4982,19 +4982,19 @@
         <v>132347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116401</v>
+        <v>115688</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147123</v>
+        <v>147821</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1597850852681359</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1405328165119422</v>
+        <v>0.1396729074850927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1776249858454095</v>
+        <v>0.1784672361200089</v>
       </c>
     </row>
     <row r="6">
@@ -5011,19 +5011,19 @@
         <v>243810</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>233355</v>
+        <v>232771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>253428</v>
+        <v>253773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8404482485567287</v>
+        <v>0.8404482485567291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8044080076770196</v>
+        <v>0.8023959131624716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.873604069060875</v>
+        <v>0.8747941812643785</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>703</v>
@@ -5032,19 +5032,19 @@
         <v>368434</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>351572</v>
+        <v>351494</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>383880</v>
+        <v>383855</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6845852712497262</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6532552930323465</v>
+        <v>0.6531097411628174</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7132855460235781</v>
+        <v>0.7132397445526191</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1056</v>
@@ -5053,19 +5053,19 @@
         <v>612243</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>593253</v>
+        <v>592118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>630655</v>
+        <v>630837</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7391744136376689</v>
+        <v>0.7391744136376688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7162469181106808</v>
+        <v>0.7148765454475177</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7614028875813951</v>
+        <v>0.7616234427730465</v>
       </c>
     </row>
     <row r="7">
@@ -5157,19 +5157,19 @@
         <v>4442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1593</v>
+        <v>1749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9188</v>
+        <v>9076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01462183441332875</v>
+        <v>0.01462183441332876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005243881537301445</v>
+        <v>0.005758123331972299</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0302397450671799</v>
+        <v>0.02987306725705416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -5178,19 +5178,19 @@
         <v>7194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3954</v>
+        <v>3810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11690</v>
+        <v>11784</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02595391609025175</v>
+        <v>0.02595391609025176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01426557221218357</v>
+        <v>0.01374414234528067</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04217533983221586</v>
+        <v>0.04251405959779516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -5199,19 +5199,19 @@
         <v>11636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7216</v>
+        <v>7324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18400</v>
+        <v>17791</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0200280295736856</v>
+        <v>0.02002802957368559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01241940199021598</v>
+        <v>0.01260543530515836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03166977220514758</v>
+        <v>0.03062076015355273</v>
       </c>
     </row>
     <row r="9">
@@ -5228,19 +5228,19 @@
         <v>13207</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8308</v>
+        <v>8367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19760</v>
+        <v>20341</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04346761918374727</v>
+        <v>0.04346761918374728</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02734358093448558</v>
+        <v>0.02753927149809962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06503882547471222</v>
+        <v>0.06694971677624623</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -5249,19 +5249,19 @@
         <v>19114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13401</v>
+        <v>13571</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27151</v>
+        <v>26066</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06895766138486718</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04834787111623657</v>
+        <v>0.04896119140264408</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09795583563066987</v>
+        <v>0.09404119931567131</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -5270,19 +5270,19 @@
         <v>32320</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23872</v>
+        <v>23685</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41667</v>
+        <v>41397</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05562815126547544</v>
+        <v>0.05562815126547545</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04108711917708177</v>
+        <v>0.04076598026214551</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07171471027268389</v>
+        <v>0.07125112169487134</v>
       </c>
     </row>
     <row r="10">
@@ -5299,19 +5299,19 @@
         <v>286176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>278220</v>
+        <v>278912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291718</v>
+        <v>292599</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9419105464029239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9157255531058812</v>
+        <v>0.9180022330803311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9601500408469157</v>
+        <v>0.9630498903964073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>479</v>
@@ -5320,19 +5320,19 @@
         <v>250872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>242212</v>
+        <v>243257</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>257756</v>
+        <v>257857</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.905088422524881</v>
+        <v>0.9050884225248813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8738440257589396</v>
+        <v>0.8776146893204635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9299217588530152</v>
+        <v>0.9302860314188787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>879</v>
@@ -5341,19 +5341,19 @@
         <v>537048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>526332</v>
+        <v>525996</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>547371</v>
+        <v>546197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.924343819160839</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9058992754839202</v>
+        <v>0.9053208176553277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9421108608634875</v>
+        <v>0.9400894300111602</v>
       </c>
     </row>
     <row r="11">
@@ -5448,16 +5448,16 @@
         <v>552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5088</v>
+        <v>5254</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01531795564782394</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004640396742897085</v>
+        <v>0.004640110113122612</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04280242584248375</v>
+        <v>0.04419924228091004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3074</v>
+        <v>3080</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007364867601545001</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03710186419572076</v>
+        <v>0.03717575563521087</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -5487,19 +5487,19 @@
         <v>2431</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5594</v>
+        <v>5573</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01205153632048306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003092062631393614</v>
+        <v>0.003169013700896245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02772916369060447</v>
+        <v>0.02762731607551915</v>
       </c>
     </row>
     <row r="13">
@@ -5516,19 +5516,19 @@
         <v>4015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9130</v>
+        <v>10249</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03376915157156616</v>
+        <v>0.03376915157156617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01075573608044037</v>
+        <v>0.01067380777563885</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07679546727235106</v>
+        <v>0.08621368997807453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5537,19 +5537,19 @@
         <v>5940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3145</v>
+        <v>2979</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10905</v>
+        <v>10494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07169653033201737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03795877921421718</v>
+        <v>0.03595210472506396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.131610713276967</v>
+        <v>0.1266521186581477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -5558,19 +5558,19 @@
         <v>9955</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5970</v>
+        <v>5981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16594</v>
+        <v>16500</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0493463364710191</v>
+        <v>0.04934633647101911</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02959412276519757</v>
+        <v>0.02964846931873803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08225649454118282</v>
+        <v>0.08179070549212554</v>
       </c>
     </row>
     <row r="14">
@@ -5587,19 +5587,19 @@
         <v>113045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107376</v>
+        <v>106818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116251</v>
+        <v>116309</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9509128927806099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9032243814293633</v>
+        <v>0.8985300864330572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778802646536312</v>
+        <v>0.9783623594190879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -5608,19 +5608,19 @@
         <v>76304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71483</v>
+        <v>71749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79326</v>
+        <v>79498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9209386020664375</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8627502602373106</v>
+        <v>0.8659590727267907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9574093989372325</v>
+        <v>0.9594874161250001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -5629,19 +5629,19 @@
         <v>189350</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>182331</v>
+        <v>182724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>193829</v>
+        <v>193711</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.938602127208498</v>
+        <v>0.9386021272084979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9038095746868078</v>
+        <v>0.9057595985409443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9608038911803779</v>
+        <v>0.9602190731478817</v>
       </c>
     </row>
     <row r="15">
@@ -5733,19 +5733,19 @@
         <v>21865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15665</v>
+        <v>15256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31707</v>
+        <v>30489</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03067414215592538</v>
+        <v>0.03067414215592537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02197696111871877</v>
+        <v>0.02140343094472228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04448267892202711</v>
+        <v>0.04277368958839262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -5754,19 +5754,19 @@
         <v>75893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64835</v>
+        <v>64110</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89448</v>
+        <v>88728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08449251442218757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07218157094942745</v>
+        <v>0.07137427605117079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09958401514153528</v>
+        <v>0.09878232124486742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -5775,19 +5775,19 @@
         <v>97757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83606</v>
+        <v>83741</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113392</v>
+        <v>113642</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06068041550261251</v>
+        <v>0.06068041550261252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05189633858768</v>
+        <v>0.05198005719463909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07038523247067054</v>
+        <v>0.07054040613982018</v>
       </c>
     </row>
     <row r="17">
@@ -5804,19 +5804,19 @@
         <v>47905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38120</v>
+        <v>38298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59527</v>
+        <v>61194</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06720693065208885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05347978860009479</v>
+        <v>0.05372910752934342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08351197689103636</v>
+        <v>0.08584996504273419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>235</v>
@@ -5825,19 +5825,19 @@
         <v>126717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110212</v>
+        <v>112769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142895</v>
+        <v>145550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1410754279716504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.122700358697692</v>
+        <v>0.1255466699390456</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1590869424909365</v>
+        <v>0.1620427770454984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -5846,19 +5846,19 @@
         <v>174622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155804</v>
+        <v>156272</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194048</v>
+        <v>197470</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1083920915728566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09671138842534449</v>
+        <v>0.09700148656693365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1204500528001974</v>
+        <v>0.1225740734410049</v>
       </c>
     </row>
     <row r="18">
@@ -5875,19 +5875,19 @@
         <v>643031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>628528</v>
+        <v>627879</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>653950</v>
+        <v>654988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9021189271919857</v>
+        <v>0.9021189271919858</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8817715582042489</v>
+        <v>0.8808620133754584</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9174368807413315</v>
+        <v>0.9188929879033524</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1323</v>
@@ -5896,19 +5896,19 @@
         <v>695610</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>676078</v>
+        <v>675465</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>714476</v>
+        <v>712698</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7744320576061621</v>
+        <v>0.774432057606162</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.752686165317796</v>
+        <v>0.7520039871444993</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7954348698844141</v>
+        <v>0.7934558506533949</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2236</v>
@@ -5917,19 +5917,19 @@
         <v>1338642</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1316090</v>
+        <v>1312568</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1361908</v>
+        <v>1360685</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8309274929245308</v>
+        <v>0.8309274929245309</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8169288548531409</v>
+        <v>0.8147427140712635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8453691404072168</v>
+        <v>0.8446095797895852</v>
       </c>
     </row>
     <row r="19">
